--- a/thesis/figures/circEx/operatingArea.xlsx
+++ b/thesis/figures/circEx/operatingArea.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>R</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Vmax</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -208,8 +211,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="644393216"/>
-        <c:axId val="644392640"/>
+        <c:axId val="157157632"/>
+        <c:axId val="157158208"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -290,11 +293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="644364480"/>
-        <c:axId val="644362176"/>
+        <c:axId val="157159360"/>
+        <c:axId val="157158784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="644393216"/>
+        <c:axId val="157157632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -306,12 +309,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644392640"/>
+        <c:crossAx val="157158208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="644392640"/>
+        <c:axId val="157158208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -343,12 +346,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644393216"/>
+        <c:crossAx val="157157632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="644362176"/>
+        <c:axId val="157158784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -378,12 +381,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644364480"/>
+        <c:crossAx val="157159360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="644364480"/>
+        <c:axId val="157159360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -394,7 +397,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644362176"/>
+        <c:crossAx val="157158784"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -739,9 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -789,6 +791,12 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
